--- a/Datos/Database by set/Set with text box/Xlsx sets/Theros Hero's Path (THP1).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Theros Hero's Path (THP1).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,147 +444,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The Avenger</t>
+          <t>('The Avenger', ['Hero', '{3}, {T}: Target creature you control gains deathtouch until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hero</t>
+          <t>('The Harvester', ['Hero', '{T}: Draw a card, then discard a card.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{3}, {T}: Target creature you control gains deathtouch until end of turn.</t>
+          <t>('The Hunter', ['Hero', '{T}: Target creature you control gets +1/+1 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Harvester</t>
+          <t>('The Philosopher', ['Hero', '{2}, {T}: Tap target creature.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hero</t>
+          <t>('The Protector', ['Hero', '{T}: Prevent the next 1 damage that would be dealt to any target this turn.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{T}: Draw a card, then discard a card.</t>
+          <t>('The Slayer', ['Hero', 'You start the game with an additional 7 life.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The Hunter</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Hero</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{T}: Target creature you control gets +1/+1 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>The Philosopher</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Hero</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{2}, {T}: Tap target creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>The Protector</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Hero</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{T}: Prevent the next 1 damage that would be dealt to any target this turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>The Slayer</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Hero</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>You start the game with an additional 7 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>The Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Hero</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{T}: Target creature you control gains haste until end of turn.</t>
+          <t>('The Warrior', ['Hero', '{T}: Target creature you control gains haste until end of turn.'])</t>
         </is>
       </c>
     </row>
